--- a/bioSample/bioSample_H.BROWN_12.16.20.xlsx
+++ b/bioSample/bioSample_H.BROWN_12.16.20.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="22">
   <si>
     <t xml:space="preserve">harvestDate</t>
   </si>
@@ -37,7 +37,7 @@
     <t xml:space="preserve">strain</t>
   </si>
   <si>
-    <t xml:space="preserve">genotype</t>
+    <t xml:space="preserve">genotype1</t>
   </si>
   <si>
     <t xml:space="preserve">replicate</t>
@@ -55,10 +55,13 @@
     <t xml:space="preserve">treatment</t>
   </si>
   <si>
-    <t xml:space="preserve">timepoint</t>
+    <t xml:space="preserve">timePoint</t>
   </si>
   <si>
     <t xml:space="preserve">12.16.20</t>
+  </si>
+  <si>
+    <t xml:space="preserve">H.BROWN</t>
   </si>
   <si>
     <t xml:space="preserve">Environmental_Perturbation</t>
@@ -183,14 +186,16 @@
   <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="0" width="10.61"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="26.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="4" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="0" width="10.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.68"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="10.61"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -231,30 +236,30 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="0" t="n">
         <v>1</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H2" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I2" s="0" t="n">
         <v>30</v>
@@ -263,30 +268,30 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B3" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
         <v>2</v>
       </c>
       <c r="D3" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E3" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H3" s="0" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I3" s="0" t="n">
         <v>30</v>
@@ -295,841 +300,841 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B4" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
         <v>3</v>
       </c>
       <c r="D4" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E4" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F4" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G4" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H4" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I4" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K4" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L4" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B5" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
         <v>4</v>
       </c>
       <c r="D5" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E5" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G5" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H5" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I5" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K5" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L5" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="D6" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E6" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F6" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H6" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I6" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K6" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L6" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B7" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
         <v>6</v>
       </c>
       <c r="D7" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E7" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G7" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H7" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I7" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K7" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L7" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B8" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
         <v>7</v>
       </c>
       <c r="D8" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E8" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F8" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H8" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I8" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K8" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L8" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
         <v>8</v>
       </c>
       <c r="D9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G9" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H9" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I9" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K9" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L9" s="0" t="n">
         <v>30</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
         <v>9</v>
       </c>
       <c r="D10" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G10" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H10" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I10" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K10" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L10" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B11" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
         <v>10</v>
       </c>
       <c r="D11" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E11" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G11" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H11" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I11" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K11" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L11" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B12" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
         <v>11</v>
       </c>
       <c r="D12" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G12" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H12" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I12" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K12" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L12" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B13" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
         <v>12</v>
       </c>
       <c r="D13" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F13" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G13" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H13" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I13" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K13" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L13" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B14" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
         <v>13</v>
       </c>
       <c r="D14" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E14" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G14" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H14" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I14" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K14" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L14" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B15" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
         <v>14</v>
       </c>
       <c r="D15" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E15" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G15" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H15" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I15" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K15" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L15" s="0" t="n">
         <v>90</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B16" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
         <v>15</v>
       </c>
       <c r="D16" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E16" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F16" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G16" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H16" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I16" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K16" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L16" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B17" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
         <v>16</v>
       </c>
       <c r="D17" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E17" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F17" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G17" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H17" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I17" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K17" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L17" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B18" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
         <v>17</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E18" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F18" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G18" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H18" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I18" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K18" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L18" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B19" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
         <v>18</v>
       </c>
       <c r="D19" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E19" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F19" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G19" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H19" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I19" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K19" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L19" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B20" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
         <v>19</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E20" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F20" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G20" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H20" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I20" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K20" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L20" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B21" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
         <v>20</v>
       </c>
       <c r="D21" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E21" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F21" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G21" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H21" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I21" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K21" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L21" s="0" t="n">
         <v>180</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B22" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
         <v>21</v>
       </c>
       <c r="D22" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E22" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F22" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G22" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H22" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I22" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K22" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L22" s="0" t="n">
         <v>1440</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B23" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
         <v>22</v>
       </c>
       <c r="D23" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E23" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F23" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G23" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H23" s="0" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="I23" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K23" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L23" s="0" t="n">
         <v>1440</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
         <v>23</v>
       </c>
       <c r="D24" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E24" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F24" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G24" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H24" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I24" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K24" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L24" s="0" t="n">
         <v>1440</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B25" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
         <v>24</v>
       </c>
       <c r="D25" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E25" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F25" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G25" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H25" s="0" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I25" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K25" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L25" s="0" t="n">
         <v>1440</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B26" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>25</v>
       </c>
       <c r="D26" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E26" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F26" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G26" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H26" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I26" s="0" t="n">
         <v>30</v>
       </c>
       <c r="K26" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L26" s="0" t="n">
         <v>1440</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
       <c r="B27" s="0" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
         <v>26</v>
       </c>
       <c r="D27" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E27" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F27" s="0" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G27" s="0" t="n">
         <v>5</v>
       </c>
       <c r="H27" s="0" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I27" s="0" t="n">
         <v>37</v>
       </c>
       <c r="K27" s="0" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="L27" s="0" t="n">
         <v>1440</v>
